--- a/rhla_analysis/rhla1_3_normal_result/k1.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03444529291435281</v>
+        <v>0.0344452929143526</v>
       </c>
       <c r="B2" t="n">
         <v>0.2293499166337793</v>
@@ -466,12 +466,12 @@
         <v>0.05797101449275362</v>
       </c>
       <c r="D2" t="n">
-        <v>6.658381950882259</v>
+        <v>6.658381950882299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03704525354983729</v>
+        <v>0.03704525354983691</v>
       </c>
       <c r="B3" t="n">
         <v>0.1996074860047693</v>
@@ -480,12 +480,12 @@
         <v>0.06052855924978687</v>
       </c>
       <c r="D3" t="n">
-        <v>5.388206770841388</v>
+        <v>5.388206770841446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03058061195493931</v>
+        <v>0.03058061195493946</v>
       </c>
       <c r="B4" t="n">
         <v>0.1733662140361349</v>
@@ -494,26 +494,26 @@
         <v>0.07203751065643649</v>
       </c>
       <c r="D4" t="n">
-        <v>5.669154505200582</v>
+        <v>5.669154505200554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01467490600007397</v>
+        <v>0.01467490600007394</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1793745460894076</v>
+        <v>0.1793745460894077</v>
       </c>
       <c r="C5" t="n">
         <v>0.06606990622335891</v>
       </c>
       <c r="D5" t="n">
-        <v>12.22321601845378</v>
+        <v>12.22321601845381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01613075052572834</v>
+        <v>0.01613075052572844</v>
       </c>
       <c r="B6" t="n">
         <v>0.2023326562340892</v>
@@ -522,40 +522,40 @@
         <v>0.06820119352088662</v>
       </c>
       <c r="D6" t="n">
-        <v>12.54328841744662</v>
+        <v>12.54328841744654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02474705120127213</v>
+        <v>0.02474705120127224</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2324233971212083</v>
+        <v>0.2324233971212084</v>
       </c>
       <c r="C7" t="n">
         <v>0.05328218243819267</v>
       </c>
       <c r="D7" t="n">
-        <v>9.391963318411873</v>
+        <v>9.391963318411834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01955982036455138</v>
+        <v>0.01955982036455139</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1503029573972668</v>
+        <v>0.1503029573972669</v>
       </c>
       <c r="C8" t="n">
         <v>0.07374254049445865</v>
       </c>
       <c r="D8" t="n">
-        <v>7.684270846866449</v>
+        <v>7.684270846866446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01912309853476812</v>
+        <v>0.01912309853476795</v>
       </c>
       <c r="B9" t="n">
         <v>0.2106805664627568</v>
@@ -564,12 +564,12 @@
         <v>0.06436487638533675</v>
       </c>
       <c r="D9" t="n">
-        <v>11.01707268200883</v>
+        <v>11.01707268200892</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.02205384270288</v>
+        <v>0.02205384270288007</v>
       </c>
       <c r="B10" t="n">
         <v>0.2011476918197975</v>
@@ -578,21 +578,21 @@
         <v>0.06777493606138107</v>
       </c>
       <c r="D10" t="n">
-        <v>9.120754805852028</v>
+        <v>9.120754805852004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02978893071682856</v>
+        <v>0.02978893071682861</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1712772871398275</v>
+        <v>0.1712772871398274</v>
       </c>
       <c r="C11" t="n">
         <v>0.05583972719522592</v>
       </c>
       <c r="D11" t="n">
-        <v>5.74969570972443</v>
+        <v>5.74969570972442</v>
       </c>
     </row>
   </sheetData>
